--- a/average_satisfaction_similar_g4.xlsx
+++ b/average_satisfaction_similar_g4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0F1FCE-49C1-46C9-88B3-B7762F59E719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD47BB49-128E-476B-9631-834635CB4BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{B638B4C1-67C4-4848-AE3F-44269A46B9BC}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{694F28E9-5EC8-442A-AE37-A2B2A952E045}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98785EC5-7028-4174-A552-5679FEA5DBE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10B1EA5-9328-47A2-BEC6-458E5E9ACA9A}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.0143012300300631</v>
+        <v>1.0375941735378578</v>
       </c>
       <c r="B1">
-        <v>1.0232391266122283</v>
+        <v>1.1363609962651589</v>
       </c>
       <c r="C1">
-        <v>0.9201795873635007</v>
+        <v>1.0800437190695285</v>
       </c>
       <c r="D1">
-        <v>0.98019589863418199</v>
+        <v>1.0305447567039203</v>
       </c>
       <c r="E1">
-        <v>1.0439750272351032</v>
+        <v>1.0688607926700435</v>
       </c>
       <c r="F1">
-        <v>0.94612298568687281</v>
+        <v>1.0580259991945629</v>
       </c>
       <c r="G1">
-        <v>0.86423023290669188</v>
+        <v>1.0245391898345346</v>
       </c>
       <c r="H1">
-        <v>1.1192944809987566</v>
+        <v>1.0995622742375804</v>
       </c>
       <c r="I1">
-        <v>0.90505551707892395</v>
+        <v>1.0426963618114171</v>
       </c>
       <c r="J1">
-        <v>1.0106068973041475</v>
+        <v>0.97803483582012807</v>
       </c>
       <c r="K1">
-        <v>0.9335911372217488</v>
+        <v>1.1398324276784051</v>
       </c>
       <c r="L1">
-        <v>0.90013890222396831</v>
+        <v>1.2048654160446237</v>
       </c>
       <c r="M1">
-        <v>1.0430522647324589</v>
+        <v>1.1323274068515343</v>
       </c>
       <c r="N1">
-        <v>0.98586555421102484</v>
+        <v>1.2343194064456999</v>
       </c>
       <c r="O1">
-        <v>0.88396129591435613</v>
+        <v>1.1341072936555916</v>
       </c>
       <c r="P1">
-        <v>0.99950926628185655</v>
+        <v>1.1474183491580203</v>
       </c>
       <c r="Q1">
-        <v>0.91342434454588817</v>
+        <v>1.0967244682001156</v>
       </c>
       <c r="R1">
-        <v>0.95840440459212961</v>
+        <v>1.116232183750774</v>
       </c>
       <c r="S1">
-        <v>0.98271469858414895</v>
+        <v>0.95728025292853169</v>
       </c>
       <c r="T1">
-        <v>0.95562378493509303</v>
+        <v>1.1413891378667154</v>
       </c>
       <c r="U1">
-        <v>0.96138858651205239</v>
+        <v>1.0460353004212806</v>
       </c>
       <c r="V1">
-        <v>1.160556922290219</v>
+        <v>1.0743031210875738</v>
       </c>
       <c r="W1">
-        <v>0.98809224114909566</v>
+        <v>1.073298495607808</v>
       </c>
       <c r="X1">
-        <v>0.95757276467705199</v>
+        <v>1.1359932203975149</v>
       </c>
       <c r="Y1">
-        <v>1.0611026795788354</v>
+        <v>1.1084572347946635</v>
       </c>
       <c r="Z1">
-        <v>0.92137736194608466</v>
+        <v>0.90318103139064621</v>
       </c>
       <c r="AA1">
-        <v>0.98822660021091124</v>
+        <v>1.1178920821119462</v>
       </c>
       <c r="AB1">
-        <v>1.0827726109054481</v>
+        <v>1.1238205469948936</v>
       </c>
       <c r="AC1">
-        <v>0.9528945149966761</v>
+        <v>0.99623909276033551</v>
       </c>
       <c r="AD1">
-        <v>0.9815804774236101</v>
+        <v>1.2529511635873951</v>
       </c>
       <c r="AE1">
-        <v>0.96076045657261955</v>
+        <v>1.0681168005381085</v>
       </c>
       <c r="AF1">
-        <v>1.0409715448404522</v>
+        <v>1.1429906607989835</v>
       </c>
       <c r="AG1">
-        <v>0.99089288939996256</v>
+        <v>1.1273222692268265</v>
       </c>
       <c r="AH1">
-        <v>1.0728781320446623</v>
+        <v>1.0281117206857469</v>
       </c>
       <c r="AI1">
-        <v>0.89453071626662783</v>
+        <v>1.1354382314639293</v>
       </c>
       <c r="AJ1">
-        <v>1.0106114405294595</v>
+        <v>1.0922133021144877</v>
       </c>
       <c r="AK1">
-        <v>0.87572728458700588</v>
+        <v>1.2271841749628996</v>
       </c>
       <c r="AL1">
-        <v>0.9360227706132983</v>
+        <v>1.0723104079605208</v>
       </c>
       <c r="AM1">
-        <v>1.1471725767783698</v>
+        <v>1.0741733037075056</v>
       </c>
       <c r="AN1">
-        <v>1.0626067922722675</v>
+        <v>1.1137890377370465</v>
       </c>
       <c r="AO1">
-        <v>0.88457995389159494</v>
+        <v>0.9231221094752009</v>
       </c>
       <c r="AP1">
-        <v>1.0564206201124375</v>
+        <v>1.1621920733383311</v>
       </c>
       <c r="AQ1">
-        <v>1.0776395486119541</v>
+        <v>1.0277613202975413</v>
       </c>
       <c r="AR1">
-        <v>1.1146503523619418</v>
+        <v>1.1114096943984444</v>
       </c>
       <c r="AS1">
-        <v>0.90779789064063965</v>
+        <v>1.0125396596920426</v>
       </c>
       <c r="AT1">
-        <v>1.0493486716442284</v>
+        <v>1.192506857835514</v>
       </c>
       <c r="AU1">
-        <v>0.96120078002487719</v>
+        <v>1.2919665559192812</v>
       </c>
       <c r="AV1">
-        <v>0.92266057513907374</v>
+        <v>1.2129365122911877</v>
       </c>
       <c r="AW1">
-        <v>1.0322771615756539</v>
+        <v>1.1956810100058166</v>
       </c>
       <c r="AX1">
-        <v>1.1725523100011892</v>
+        <v>1.1819394450860381</v>
       </c>
       <c r="AY1">
-        <v>1.1660168928350623</v>
+        <v>1.1730276441883316</v>
       </c>
       <c r="AZ1">
-        <v>1.071202559514759</v>
+        <v>1.1098876011586341</v>
       </c>
       <c r="BA1">
-        <v>1.0623121434120333</v>
+        <v>1.2575306424269437</v>
       </c>
       <c r="BB1">
-        <v>0.96115792792582988</v>
+        <v>0.95344229250735923</v>
       </c>
       <c r="BC1">
-        <v>0.91214776230503314</v>
+        <v>1.1104239048417708</v>
       </c>
       <c r="BD1">
-        <v>0.94568143676528982</v>
+        <v>1.2850619882203314</v>
       </c>
       <c r="BE1">
-        <v>1.1052466256860367</v>
+        <v>1.0719341871120869</v>
       </c>
       <c r="BF1">
-        <v>0.98148916431591127</v>
+        <v>1.0823893023915321</v>
       </c>
       <c r="BG1">
-        <v>1.0614963322936082</v>
+        <v>0.923209999808288</v>
       </c>
       <c r="BH1">
-        <v>1.109894047633776</v>
+        <v>1.1480887258671451</v>
       </c>
       <c r="BI1">
-        <v>1.2041092858506</v>
+        <v>1.2144244606945684</v>
       </c>
       <c r="BJ1">
-        <v>0.86089522953961795</v>
+        <v>1.164416189679113</v>
       </c>
       <c r="BK1">
-        <v>0.95424744902180358</v>
+        <v>1.1288133542020773</v>
       </c>
       <c r="BL1">
-        <v>0.80994251331207856</v>
+        <v>1.2006930244757714</v>
       </c>
       <c r="BM1">
-        <v>1.1897856868532581</v>
+        <v>0.83954934330651021</v>
       </c>
       <c r="BN1">
-        <v>1.0051269969290373</v>
+        <v>1.1515893532944281</v>
       </c>
       <c r="BO1">
-        <v>0.94427280799688051</v>
+        <v>1.1354922559464358</v>
       </c>
       <c r="BP1">
-        <v>1.0164966371771595</v>
+        <v>1.2360279945020192</v>
       </c>
       <c r="BQ1">
-        <v>0.9911079010591598</v>
+        <v>1.0880863705400363</v>
       </c>
       <c r="BR1">
-        <v>0.86239277954882776</v>
+        <v>0.9499099996235868</v>
       </c>
       <c r="BS1">
-        <v>0.89736980582199077</v>
+        <v>1.1244627495186741</v>
       </c>
       <c r="BT1">
-        <v>1.0304029397460464</v>
+        <v>1.1161425956863193</v>
       </c>
       <c r="BU1">
-        <v>0.99205151530407232</v>
+        <v>1.148143500148338</v>
       </c>
       <c r="BV1">
-        <v>0.97930639026918931</v>
+        <v>1.0583889146514749</v>
       </c>
       <c r="BW1">
-        <v>0.97087759255694406</v>
+        <v>1.1443428274850922</v>
       </c>
       <c r="BX1">
-        <v>0.94517467256683485</v>
+        <v>1.0692356488864365</v>
       </c>
       <c r="BY1">
-        <v>1.0315218187026869</v>
+        <v>1.0214318551179589</v>
       </c>
       <c r="BZ1">
-        <v>0.99783295761146573</v>
+        <v>1.1302310200481271</v>
       </c>
       <c r="CA1">
-        <v>1.0477319605459177</v>
+        <v>1.2507408166158058</v>
       </c>
       <c r="CB1">
-        <v>1.0125686954000443</v>
+        <v>1.1723362660557091</v>
       </c>
       <c r="CC1">
-        <v>0.95651878050304262</v>
+        <v>1.0891056356107696</v>
       </c>
       <c r="CD1">
-        <v>0.92853832518757784</v>
+        <v>1.0518746026178085</v>
       </c>
       <c r="CE1">
-        <v>0.94374493841320162</v>
+        <v>1.1609257875441679</v>
       </c>
       <c r="CF1">
-        <v>1.0410819980883963</v>
+        <v>1.0233754581241641</v>
       </c>
       <c r="CG1">
-        <v>1.0782546414605845</v>
+        <v>1.0289505413375477</v>
       </c>
       <c r="CH1">
-        <v>0.99246053736871964</v>
+        <v>1.1830463127910531</v>
       </c>
       <c r="CI1">
-        <v>0.90446404933805769</v>
+        <v>1.1459454096325026</v>
       </c>
       <c r="CJ1">
-        <v>0.99175545372241092</v>
+        <v>1.184915396810764</v>
       </c>
       <c r="CK1">
-        <v>0.94426240985380405</v>
+        <v>1.1017856925017848</v>
       </c>
       <c r="CL1">
-        <v>1.0164060914096575</v>
+        <v>1.0703075784296086</v>
       </c>
       <c r="CM1">
-        <v>0.95008671066442185</v>
+        <v>1.2812363567018521</v>
       </c>
       <c r="CN1">
-        <v>1.1299174154575693</v>
+        <v>1.0078203109849633</v>
       </c>
       <c r="CO1">
-        <v>0.97563954741241576</v>
+        <v>1.145204561814017</v>
       </c>
       <c r="CP1">
-        <v>1.0348655556031818</v>
+        <v>1.0393468061671851</v>
       </c>
       <c r="CQ1">
-        <v>0.99935656303374998</v>
+        <v>0.97320664749200658</v>
       </c>
       <c r="CR1">
-        <v>0.9613306645958376</v>
+        <v>1.1847020910998214</v>
       </c>
       <c r="CS1">
-        <v>0.86233140618932114</v>
+        <v>1.0488323857531132</v>
       </c>
       <c r="CT1">
-        <v>0.99144818926874834</v>
+        <v>0.96186307271228988</v>
       </c>
       <c r="CU1">
-        <v>0.96017961051284273</v>
+        <v>1.0454390127967135</v>
       </c>
       <c r="CV1">
-        <v>1.0251473938020923</v>
+        <v>0.9788636788357854</v>
       </c>
     </row>
   </sheetData>
